--- a/mexc_positions.xlsx
+++ b/mexc_positions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'positionId': '879558354', 'symbol': 'DOGE_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '63', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '0.20082', 'holdAvgPriceFullyScale': '0.200826666666666666', 'openAvgPrice': '0.20082', 'openAvgPriceFullyScale': '0.200826666666666666', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '421.98903738264', 'im': '421.98903738264', 'holdFee': '-0.7924', 'realised': '-0.919', 'leverage': '3', 'marginRatio': '0.0052', 'createTime': '1748606966928', 'updateTime': '1749024001390', 'autoAddIm': False, 'version': '17', 'profitRatio': '0', 'newOpenAvgPrice': '0.20082', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.1265', 'deductFeeList': [], 'totalFee': '0.1265', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.1265'}</t>
+          <t>{'positionId': '879558354', 'symbol': 'DOGE_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '63', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '0.20082', 'holdAvgPriceFullyScale': '0.200826666666666666', 'openAvgPrice': '0.20082', 'openAvgPriceFullyScale': '0.200826666666666666', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '211.121033165279999999', 'im': '211.121033165279999999', 'holdFee': '-1.9763', 'realised': '-2.1028', 'leverage': '6', 'marginRatio': '0.007', 'createTime': '1748606966928', 'updateTime': '1749628801074', 'autoAddIm': False, 'version': '39', 'profitRatio': '0', 'newOpenAvgPrice': '0.20082', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.1265', 'deductFeeList': [], 'totalFee': '0.1265', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.1265'}</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -599,7 +599,7 @@
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
@@ -614,18 +614,18 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>421.98903738264</v>
+        <v>211.12103316528</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>1749024001390</v>
+        <v>1749628801074</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025-06-04T08:00:01.390Z</t>
+          <t>2025-06-11T08:00:01.074Z</t>
         </is>
       </c>
       <c r="X2" t="inlineStr"/>
@@ -636,7 +636,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'positionId': '879576936', 'symbol': 'AVAX_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '503', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '21.51', 'holdAvgPriceFullyScale': '21.51', 'openAvgPrice': '21.51', 'openAvgPriceFullyScale': '21.51', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '360.54280109349', 'im': '360.54280109349', 'holdFee': '0.3994', 'realised': '0.2912', 'leverage': '3', 'marginRatio': '0.0052', 'createTime': '1748607439432', 'updateTime': '1749024002232', 'autoAddIm': False, 'version': '16', 'profitRatio': '0', 'newOpenAvgPrice': '21.51', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.1081', 'deductFeeList': [], 'totalFee': '0.1081', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.1081'}</t>
+          <t>{'positionId': '879576936', 'symbol': 'AVAX_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '563', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '21.395', 'holdAvgPriceFullyScale': '21.395968028419182948', 'openAvgPrice': '21.395', 'openAvgPriceFullyScale': '21.395968028419182948', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '200.765491969379999999', 'im': '200.765491969379999999', 'holdFee': '0.1767', 'realised': '0.0562', 'leverage': '6', 'marginRatio': '0.007', 'createTime': '1748607439432', 'updateTime': '1749628801316', 'autoAddIm': False, 'version': '39', 'profitRatio': '0', 'newOpenAvgPrice': '21.395', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.1204', 'deductFeeList': [], 'totalFee': '0.1204', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.1204'}</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -646,13 +646,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="E3" t="n">
         <v>0.1</v>
       </c>
       <c r="F3" t="n">
-        <v>21.51</v>
+        <v>21.395</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -677,18 +677,18 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>360.54280109349</v>
+        <v>200.76549196938</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>1749024002232</v>
+        <v>1749628801316</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2025-06-04T08:00:02.232Z</t>
+          <t>2025-06-11T08:00:01.316Z</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
@@ -699,7 +699,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'positionId': '879558663', 'symbol': 'DOT_USDT', 'positionType': '1', 'openType': '1', 'state': '1', 'holdVol': '2553', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '4.196', 'holdAvgPriceFullyScale': '4.196', 'openAvgPrice': '4.196', 'openAvgPriceFullyScale': '4.196', 'closeAvgPrice': '0', 'liquidatePrice': '2.814', 'oim': '356.972472549204', 'im': '356.972472549204', 'holdFee': '-0.6918', 'realised': '-0.7989', 'leverage': '3', 'marginRatio': '0.0124', 'createTime': '1748606971207', 'updateTime': '1749024002747', 'autoAddIm': True, 'version': '17', 'profitRatio': '0', 'newOpenAvgPrice': '4.196', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.1071', 'deductFeeList': [], 'totalFee': '0.1071', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.1071'}</t>
+          <t>{'positionId': '879558663', 'symbol': 'DOT_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '2805', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '4.179', 'holdAvgPriceFullyScale': '4.179289839572192513', 'openAvgPrice': '4.179', 'openAvgPriceFullyScale': '4.179289839572192513', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '195.381792184727999999', 'im': '195.381792184727999999', 'holdFee': '-1.7106', 'realised': '-1.8278', 'leverage': '6', 'marginRatio': '0.007', 'createTime': '1748606971207', 'updateTime': '1749628802553', 'autoAddIm': False, 'version': '40', 'profitRatio': '0', 'newOpenAvgPrice': '4.179', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.1172', 'deductFeeList': [], 'totalFee': '0.1172', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.1172'}</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2553</v>
+        <v>2805</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>4.196</v>
+        <v>4.179</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
@@ -737,21 +737,21 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>2.814</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>356.972472549204</v>
+        <v>195.381792184728</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>1749024002747</v>
+        <v>1749628802553</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2025-06-04T08:00:02.747Z</t>
+          <t>2025-06-11T08:00:02.553Z</t>
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
@@ -762,7 +762,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'positionId': '879571986', 'symbol': 'SOL_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '59', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '160.4', 'holdAvgPriceFullyScale': '160.407966101694915254', 'openAvgPrice': '160.4', 'openAvgPriceFullyScale': '160.407966101694915254', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '315.563637545309999999', 'im': '315.563637545309999999', 'holdFee': '-0.0348', 'realised': '-0.1294', 'leverage': '3', 'marginRatio': '0.0052', 'createTime': '1748607305935', 'updateTime': '1749024000794', 'autoAddIm': False, 'version': '19', 'profitRatio': '0', 'newOpenAvgPrice': '160.4', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.0946', 'deductFeeList': [], 'totalFee': '0.0946', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0946'}</t>
+          <t>{'positionId': '879571986', 'symbol': 'SOL_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '70', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '158.51', 'holdAvgPriceFullyScale': '158.513857142857142857', 'openAvgPrice': '158.51', 'openAvgPriceFullyScale': '158.513857142857142857', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '185.043785636019999999', 'im': '185.043785636019999999', 'holdFee': '-0.598', 'realised': '-0.709', 'leverage': '6', 'marginRatio': '0.007', 'createTime': '1748607305935', 'updateTime': '1749628800560', 'autoAddIm': False, 'version': '42', 'profitRatio': '0', 'newOpenAvgPrice': '158.51', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.1109', 'deductFeeList': [], 'totalFee': '0.1109', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.1109'}</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
         <v>0.1</v>
       </c>
       <c r="F5" t="n">
-        <v>160.4</v>
+        <v>158.51</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
@@ -803,18 +803,18 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>315.56363754531</v>
+        <v>185.04378563602</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>1749024000794</v>
+        <v>1749628800560</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2025-06-04T08:00:00.794Z</t>
+          <t>2025-06-11T08:00:00.560Z</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
@@ -825,23 +825,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'positionId': '879747262', 'symbol': 'ADA_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '1350', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '0.692', 'holdAvgPriceFullyScale': '0.692048888888888888', 'openAvgPrice': '0.692', 'openAvgPriceFullyScale': '0.692048888888888888', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '311.32857028578', 'im': '311.32857028578', 'holdFee': '-0.3015', 'realised': '-0.395', 'leverage': '3', 'marginRatio': '0.0052', 'createTime': '1748613061084', 'updateTime': '1749024001527', 'autoAddIm': False, 'version': '15', 'profitRatio': '0', 'newOpenAvgPrice': '0.692', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.0934', 'deductFeeList': [], 'totalFee': '0.0934', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0934'}</t>
+          <t>{'positionId': '879567936', 'symbol': 'TRX_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '376', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '0.27445', 'holdAvgPriceFullyScale': '0.274456063829787234', 'openAvgPrice': '0.27445', 'openAvgPriceFullyScale': '0.274456063829787234', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '172.198850746968', 'im': '172.198850746968', 'holdFee': '-0.6717', 'realised': '-0.7749', 'leverage': '6', 'marginRatio': '0.007', 'createTime': '1748607186404', 'updateTime': '1749628803367', 'autoAddIm': False, 'version': '40', 'profitRatio': '0', 'newOpenAvgPrice': '0.27445', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.1031', 'deductFeeList': [], 'totalFee': '0.1031', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.1031'}</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADA/USDT:USDT</t>
+          <t>TRX/USDT:USDT</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1350</v>
+        <v>376</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.27445</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
@@ -866,18 +866,18 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>311.32857028578</v>
+        <v>172.198850746968</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>1749024001527</v>
+        <v>1749628803367</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2025-06-04T08:00:01.527Z</t>
+          <t>2025-06-11T08:00:03.367Z</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -888,23 +888,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'positionId': '882347815', 'symbol': 'BCH_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '205', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '404.06', 'holdAvgPriceFullyScale': '404.06', 'openAvgPrice': '404.06', 'openAvgPriceFullyScale': '404.06', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '276.27332850559', 'im': '276.27332850559', 'holdFee': '-0.0696', 'realised': '-0.1524', 'leverage': '3', 'marginRatio': '0.0052', 'createTime': '1748758808882', 'updateTime': '1749024003596', 'autoAddIm': False, 'version': '11', 'profitRatio': '0', 'newOpenAvgPrice': '404.06', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.0828', 'deductFeeList': [], 'totalFee': '0.0828', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0828'}</t>
+          <t>{'positionId': '879747262', 'symbol': 'ADA_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '1350', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '0.692', 'holdAvgPriceFullyScale': '0.692048888888888888', 'openAvgPrice': '0.692', 'openAvgPriceFullyScale': '0.692048888888888888', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '155.710993771559999999', 'im': '155.710993771559999999', 'holdFee': '-1.0481', 'realised': '-1.1416', 'leverage': '6', 'marginRatio': '0.007', 'createTime': '1748613061084', 'updateTime': '1749628800964', 'autoAddIm': False, 'version': '37', 'profitRatio': '0', 'newOpenAvgPrice': '0.692', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.0934', 'deductFeeList': [], 'totalFee': '0.0934', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0934'}</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BCH/USDT:USDT</t>
+          <t>ADA/USDT:USDT</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>205</v>
+        <v>1350</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>404.06</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
@@ -929,18 +929,18 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>276.27332850559</v>
+        <v>155.71099377156</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>1749024003596</v>
+        <v>1749628800964</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2025-06-04T08:00:03.596Z</t>
+          <t>2025-06-11T08:00:00.964Z</t>
         </is>
       </c>
       <c r="X7" t="inlineStr"/>
@@ -951,7 +951,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'positionId': '878704188', 'symbol': 'ETH_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '31', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '2572.06', 'holdAvgPriceFullyScale': '2572.067419354838709677', 'openAvgPrice': '2572.06', 'openAvgPriceFullyScale': '2572.067419354838709677', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '265.860031432197', 'im': '265.860031432197', 'holdFee': '-0.572', 'realised': '-0.6518', 'leverage': '3', 'marginRatio': '0.0052', 'createTime': '1748566424723', 'updateTime': '1749024000581', 'autoAddIm': False, 'version': '24', 'profitRatio': '0', 'newOpenAvgPrice': '2572.06', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.0797', 'deductFeeList': [], 'totalFee': '0.0797', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0797'}</t>
+          <t>{'positionId': '878704188', 'symbol': 'ETH_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '35', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '2568.53', 'holdAvgPriceFullyScale': '2568.537428571428571428', 'openAvgPrice': '2568.53', 'openAvgPriceFullyScale': '2568.537428571428571428', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '149.921242816745999999', 'im': '149.921242816745999999', 'holdFee': '-1.8006', 'realised': '-1.8905', 'leverage': '6', 'marginRatio': '0.007', 'createTime': '1748566424723', 'updateTime': '1749628800392', 'autoAddIm': False, 'version': '47', 'profitRatio': '0', 'newOpenAvgPrice': '2568.53', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.0898', 'deductFeeList': [], 'totalFee': '0.0898', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0898'}</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
         <v>0.01</v>
       </c>
       <c r="F8" t="n">
-        <v>2572.06</v>
+        <v>2568.53</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
@@ -992,18 +992,18 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>265.860031432197</v>
+        <v>149.921242816746</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>1749024000581</v>
+        <v>1749628800392</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2025-06-04T08:00:00.581Z</t>
+          <t>2025-06-11T08:00:00.392Z</t>
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
@@ -1014,23 +1014,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'positionId': '879552756', 'symbol': 'LTC_USDT', 'positionType': '1', 'openType': '1', 'state': '1', 'holdVol': '757', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '90.49', 'holdAvgPriceFullyScale': '90.49', 'openAvgPrice': '90.49', 'openAvgPriceFullyScale': '90.49', 'closeAvgPrice': '0', 'liquidatePrice': '60.69', 'oim': '228.267930119969', 'im': '228.267930119969', 'holdFee': '-0.4786', 'realised': '-0.5471', 'leverage': '3', 'marginRatio': '0.0119', 'createTime': '1748606717218', 'updateTime': '1749024002366', 'autoAddIm': True, 'version': '17', 'profitRatio': '0', 'newOpenAvgPrice': '90.49', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.0685', 'deductFeeList': [], 'totalFee': '0.0685', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0685'}</t>
+          <t>{'positionId': '882347815', 'symbol': 'BCH_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '205', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '404.06', 'holdAvgPriceFullyScale': '404.06', 'openAvgPrice': '404.06', 'openAvgPriceFullyScale': '404.06', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '138.21949241118', 'im': '138.21949241118', 'holdFee': '0.7224', 'realised': '0.6395', 'leverage': '6', 'marginRatio': '0.007', 'createTime': '1748758808882', 'updateTime': '1749628803602', 'autoAddIm': False, 'version': '33', 'profitRatio': '0', 'newOpenAvgPrice': '404.06', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.0828', 'deductFeeList': [], 'totalFee': '0.0828', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0828'}</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LTC/USDT:USDT</t>
+          <t>BCH/USDT:USDT</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>757</v>
+        <v>205</v>
       </c>
       <c r="E9" t="n">
         <v>0.01</v>
       </c>
       <c r="F9" t="n">
-        <v>90.48999999999999</v>
+        <v>404.06</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
@@ -1052,21 +1052,21 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>60.69</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>228.267930119969</v>
+        <v>138.21949241118</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>1749024002366</v>
+        <v>1749628803602</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2025-06-04T08:00:02.366Z</t>
+          <t>2025-06-11T08:00:03.602Z</t>
         </is>
       </c>
       <c r="X9" t="inlineStr"/>
@@ -1077,23 +1077,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'positionId': '879567936', 'symbol': 'TRX_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '228', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '0.27066', 'holdAvgPriceFullyScale': '0.27066', 'openAvgPrice': '0.27066', 'openAvgPriceFullyScale': '0.27066', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '205.825018902984', 'im': '205.825018902984', 'holdFee': '-0.1216', 'realised': '-0.1833', 'leverage': '3', 'marginRatio': '0.0052', 'createTime': '1748607186404', 'updateTime': '1749024003380', 'autoAddIm': False, 'version': '16', 'profitRatio': '0', 'newOpenAvgPrice': '0.27066', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.0617', 'deductFeeList': [], 'totalFee': '0.0617', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0617'}</t>
+          <t>{'positionId': '879998296', 'symbol': 'BNB_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '64', 'frozenVol': '0', 'closeVol': '17', 'holdAvgPrice': '657.74', 'holdAvgPriceFullyScale': '657.744444444444444444', 'openAvgPrice': '657.74', 'openAvgPriceFullyScale': '657.744444444444444444', 'closeAvgPrice': '666.8', 'liquidatePrice': '0', 'oim': '70.24359588992', 'im': '70.24359588992', 'holdFee': '0.3242', 'realised': '1.7991', 'leverage': '6', 'marginRatio': '0.007', 'createTime': '1748622319293', 'updateTime': '1749581825303', 'autoAddIm': False, 'version': '23', 'profitRatio': '0.0964', 'newOpenAvgPrice': '657.74', 'newCloseAvgPrice': '666.8', 'closeProfitLoss': '1.5394', 'fee': '-0.0646', 'deductFeeList': [], 'totalFee': '0.0646', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0646'}</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TRX/USDT:USDT</t>
+          <t>BNB/USDT:USDT</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F10" t="n">
-        <v>0.27066</v>
+        <v>657.74</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
@@ -1118,18 +1118,18 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>205.825018902984</v>
+        <v>70.24359588992</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>1749024003380</v>
+        <v>1749581825303</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2025-06-04T08:00:03.380Z</t>
+          <t>2025-06-10T18:57:05.303Z</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
@@ -1137,132 +1137,6 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{'positionId': '879998296', 'symbol': 'BNB_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '63', 'frozenVol': '0', 'closeVol': '0', 'holdAvgPrice': '662.81', 'holdAvgPriceFullyScale': '662.814285714285714285', 'openAvgPrice': '662.81', 'openAvgPriceFullyScale': '662.814285714285714285', 'closeAvgPrice': '0', 'liquidatePrice': '0', 'oim': '139.27451320809', 'im': '139.27451320809', 'holdFee': '0.0251', 'realised': '-0.0166', 'leverage': '3', 'marginRatio': '0.0052', 'createTime': '1748622319293', 'updateTime': '1748793602492', 'autoAddIm': False, 'version': '5', 'profitRatio': '0', 'newOpenAvgPrice': '662.81', 'newCloseAvgPrice': '0', 'closeProfitLoss': '0', 'fee': '-0.0417', 'deductFeeList': [], 'totalFee': '0.0417', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0417'}</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BNB/USDT:USDT</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>63</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F11" t="n">
-        <v>662.8099999999999</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>cross</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>139.27451320809</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="n">
-        <v>1748793602492</v>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>2025-06-01T16:00:02.492Z</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{'positionId': '880014286', 'symbol': 'BTC_USDT', 'positionType': '1', 'openType': '2', 'state': '1', 'holdVol': '13', 'frozenVol': '0', 'closeVol': '2', 'holdAvgPrice': '104702.2', 'holdAvgPriceFullyScale': '104702.24', 'openAvgPrice': '104702.2', 'openAvgPriceFullyScale': '104702.24', 'closeAvgPrice': '105367.9', 'liquidatePrice': '0', 'oim': '45.42541537775696', 'im': '45.42541537775696', 'holdFee': '-0.069', 'realised': '0.0462', 'leverage': '3', 'marginRatio': '0.0052', 'createTime': '1748622621261', 'updateTime': '1749024000302', 'autoAddIm': False, 'version': '17', 'profitRatio': '0.0066', 'newOpenAvgPrice': '104702.2', 'newCloseAvgPrice': '105367.9', 'closeProfitLoss': '0.1331', 'fee': '-0.0178', 'deductFeeList': [], 'totalFee': '0.0178', 'zeroSaveTotalFeeBinance': '0', 'zeroTradeTotalFeeBinance': '0.0178'}</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BTC/USDT:USDT</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>13</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>104702.2</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>cross</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>45.42541537775696</v>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="n">
-        <v>1749024000302</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2025-06-04T08:00:00.302Z</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
